--- a/db/excel/sqlite-inovation-manager-ver-7.1.xlsx
+++ b/db/excel/sqlite-inovation-manager-ver-7.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hieu\Desktop\NODEJS\m-inovation\db\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT_SERVICE\m-inovation\db\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD6DB78-82D5-4FCB-9D6F-FE159DA1C94A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428BC172-1955-47A7-BA86-A4A06820AB90}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="500" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="user_roles" sheetId="18" r:id="rId10"/>
     <sheet name="users" sheetId="10" r:id="rId11"/>
     <sheet name="ideas" sheetId="8" r:id="rId12"/>
-    <sheet name="ideas_categories" sheetId="19" state="hidden" r:id="rId13"/>
+    <sheet name="ideas_categories" sheetId="19" r:id="rId13"/>
     <sheet name="ideas_status_type" sheetId="21" r:id="rId14"/>
     <sheet name="ideas_statuses" sheetId="20" r:id="rId15"/>
     <sheet name="ideas_questions" sheetId="22" r:id="rId16"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7756" uniqueCount="3758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7764" uniqueCount="3758">
   <si>
     <t>table_name</t>
   </si>
@@ -11972,7 +11972,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12347,6 +12347,7 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="185">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -12941,7 +12942,7 @@
   <dimension ref="A1:AMK266"/>
   <sheetViews>
     <sheetView topLeftCell="A210" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E224" sqref="E224"/>
+      <selection activeCell="B216" sqref="B216:B226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.25"/>
@@ -18143,7 +18144,7 @@
       <c r="A216" s="107" t="s">
         <v>407</v>
       </c>
-      <c r="B216" s="67" t="s">
+      <c r="B216" s="164" t="s">
         <v>7</v>
       </c>
       <c r="C216" s="92" t="s">
@@ -18164,7 +18165,7 @@
       <c r="A217" s="107" t="s">
         <v>407</v>
       </c>
-      <c r="B217" s="74" t="s">
+      <c r="B217" s="164" t="s">
         <v>113</v>
       </c>
       <c r="C217" s="103" t="s">
@@ -18183,7 +18184,7 @@
       <c r="A218" s="107" t="s">
         <v>407</v>
       </c>
-      <c r="B218" s="67" t="s">
+      <c r="B218" s="164" t="s">
         <v>409</v>
       </c>
       <c r="C218" s="92" t="s">
@@ -18202,7 +18203,7 @@
       <c r="A219" s="107" t="s">
         <v>407</v>
       </c>
-      <c r="B219" s="67" t="s">
+      <c r="B219" s="164" t="s">
         <v>48</v>
       </c>
       <c r="C219" s="92" t="s">
@@ -18221,7 +18222,7 @@
       <c r="A220" s="107" t="s">
         <v>407</v>
       </c>
-      <c r="B220" s="76" t="s">
+      <c r="B220" s="164" t="s">
         <v>394</v>
       </c>
       <c r="C220" s="92" t="s">
@@ -18236,34 +18237,33 @@
         <v>217</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" ht="36" customHeight="1">
       <c r="A221" s="107" t="s">
         <v>407</v>
       </c>
-      <c r="B221" s="70" t="s">
-        <v>486</v>
+      <c r="B221" s="164" t="s">
+        <v>2</v>
       </c>
       <c r="C221" s="92" t="s">
-        <v>488</v>
+        <v>411</v>
       </c>
       <c r="D221" s="130" t="s">
         <v>437</v>
       </c>
-      <c r="E221" s="1"/>
       <c r="F221" s="6"/>
       <c r="G221" s="6">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="222" spans="1:7">
       <c r="A222" s="107" t="s">
         <v>407</v>
       </c>
-      <c r="B222" s="70" t="s">
-        <v>130</v>
+      <c r="B222" s="164" t="s">
+        <v>486</v>
       </c>
       <c r="C222" s="92" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D222" s="130" t="s">
         <v>437</v>
@@ -18271,32 +18271,33 @@
       <c r="E222" s="1"/>
       <c r="F222" s="6"/>
       <c r="G222" s="6">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" ht="36" customHeight="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
       <c r="A223" s="107" t="s">
         <v>407</v>
       </c>
-      <c r="B223" s="67" t="s">
-        <v>2</v>
+      <c r="B223" s="164" t="s">
+        <v>130</v>
       </c>
       <c r="C223" s="92" t="s">
-        <v>411</v>
+        <v>487</v>
       </c>
       <c r="D223" s="130" t="s">
         <v>437</v>
       </c>
+      <c r="E223" s="1"/>
       <c r="F223" s="6"/>
       <c r="G223" s="6">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="36" customHeight="1">
       <c r="A224" s="107" t="s">
         <v>407</v>
       </c>
-      <c r="B224" s="67" t="s">
+      <c r="B224" s="164" t="s">
         <v>3749</v>
       </c>
       <c r="C224" s="92" t="s">
@@ -18312,7 +18313,7 @@
       <c r="A225" s="107" t="s">
         <v>407</v>
       </c>
-      <c r="B225" s="67" t="s">
+      <c r="B225" s="164" t="s">
         <v>6</v>
       </c>
       <c r="C225" s="92" t="s">
@@ -18330,7 +18331,7 @@
       <c r="A226" s="132" t="s">
         <v>407</v>
       </c>
-      <c r="B226" s="133" t="s">
+      <c r="B226" s="164" t="s">
         <v>14</v>
       </c>
       <c r="C226" s="134" t="s">
@@ -18796,7 +18797,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" ht="38.25">
       <c r="A250" s="143" t="s">
         <v>527</v>
       </c>
@@ -49099,7 +49100,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I2" sqref="I2:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -49109,9 +49110,11 @@
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="10" width="16" customWidth="1"/>
+    <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75">
@@ -49479,19 +49482,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.140625" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" customWidth="1"/>
+    <col min="6" max="6" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.7109375" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
     <col min="10" max="10" width="18.42578125" customWidth="1"/>
@@ -49499,37 +49502,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="164" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="164" t="s">
         <v>409</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="164" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="164" t="s">
         <v>394</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="164" t="s">
+        <v>486</v>
+      </c>
+      <c r="H1" s="164" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="164" t="s">
         <v>3749</v>
       </c>
-      <c r="H1" s="76" t="s">
-        <v>486</v>
-      </c>
-      <c r="I1" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="J1" s="67" t="s">
+      <c r="J1" s="164" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="138" t="s">
+      <c r="K1" s="164" t="s">
         <v>14</v>
       </c>
     </row>
@@ -49550,11 +49553,13 @@
       <c r="F2" s="15" t="s">
         <v>458</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>3751</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
       <c r="J2" s="6">
         <v>99</v>
       </c>
@@ -49579,9 +49584,11 @@
       <c r="F3" s="15" t="s">
         <v>463</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="I3" s="15"/>
       <c r="J3" s="6">
         <v>1</v>
       </c>
@@ -49604,9 +49611,11 @@
       <c r="F4" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="I4" s="15"/>
       <c r="J4" s="6">
         <v>2</v>
       </c>
@@ -49629,11 +49638,13 @@
       <c r="F5" s="15" t="s">
         <v>462</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>3752</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
       <c r="J5" s="6">
         <v>3</v>
       </c>
@@ -49656,17 +49667,19 @@
       <c r="F6" s="15" t="s">
         <v>3706</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="I6" s="15" t="s">
         <v>3754</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
       <c r="J6" s="6">
         <v>4</v>
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="60">
+    <row r="7" spans="1:11" ht="75">
       <c r="A7" s="6">
         <v>0</v>
       </c>
@@ -49683,11 +49696,13 @@
       <c r="F7" s="15" t="s">
         <v>3705</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="I7" s="15" t="s">
         <v>3755</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
       <c r="J7" s="6">
         <v>995</v>
       </c>
@@ -49710,11 +49725,13 @@
       <c r="F8" s="149" t="s">
         <v>3704</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="I8" s="15" t="s">
         <v>3756</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
       <c r="J8" s="148">
         <v>996</v>
       </c>
@@ -49737,11 +49754,13 @@
       <c r="F9" s="149" t="s">
         <v>3703</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="I9" s="15" t="s">
         <v>3757</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
       <c r="J9" s="148">
         <v>997</v>
       </c>
